--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/F10-F3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/F10-F3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.32805733333333</v>
+        <v>1.288450333333333</v>
       </c>
       <c r="H2">
-        <v>54.984172</v>
+        <v>3.865351</v>
       </c>
       <c r="I2">
-        <v>0.9988487769772253</v>
+        <v>0.983869567795948</v>
       </c>
       <c r="J2">
-        <v>0.9988487769772253</v>
+        <v>0.9838695677959479</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.848467000000001</v>
+        <v>198.2465873333333</v>
       </c>
       <c r="N2">
-        <v>29.545401</v>
+        <v>594.7397619999999</v>
       </c>
       <c r="O2">
-        <v>0.0466568297496787</v>
+        <v>0.9851515664921635</v>
       </c>
       <c r="P2">
-        <v>0.0466568297496787</v>
+        <v>0.9851515664921635</v>
       </c>
       <c r="Q2">
-        <v>180.5032678214414</v>
+        <v>255.4308815318291</v>
       </c>
       <c r="R2">
-        <v>1624.529410392972</v>
+        <v>2298.877933786462</v>
       </c>
       <c r="S2">
-        <v>0.04660311733310119</v>
+        <v>0.9692606459381461</v>
       </c>
       <c r="T2">
-        <v>0.04660311733310119</v>
+        <v>0.969260645938146</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.32805733333333</v>
+        <v>1.288450333333333</v>
       </c>
       <c r="H3">
-        <v>54.984172</v>
+        <v>3.865351</v>
       </c>
       <c r="I3">
-        <v>0.9988487769772253</v>
+        <v>0.983869567795948</v>
       </c>
       <c r="J3">
-        <v>0.9988487769772253</v>
+        <v>0.9838695677959479</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>198.2465873333333</v>
+        <v>2.988018666666667</v>
       </c>
       <c r="N3">
-        <v>594.7397619999999</v>
+        <v>8.964055999999999</v>
       </c>
       <c r="O3">
-        <v>0.9391875175767094</v>
+        <v>0.01484843350783645</v>
       </c>
       <c r="P3">
-        <v>0.9391875175767094</v>
+        <v>0.01484843350783645</v>
       </c>
       <c r="Q3">
-        <v>3633.474818783007</v>
+        <v>3.849913647072889</v>
       </c>
       <c r="R3">
-        <v>32701.27336904706</v>
+        <v>34.649222823656</v>
       </c>
       <c r="S3">
-        <v>0.9381063032837724</v>
+        <v>0.01460892185780193</v>
       </c>
       <c r="T3">
-        <v>0.9381063032837724</v>
+        <v>0.01460892185780192</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,25 +649,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>18.32805733333333</v>
+        <v>0.01545266666666667</v>
       </c>
       <c r="H4">
-        <v>54.984172</v>
+        <v>0.046358</v>
       </c>
       <c r="I4">
-        <v>0.9988487769772253</v>
+        <v>0.0117997629255104</v>
       </c>
       <c r="J4">
-        <v>0.9988487769772253</v>
+        <v>0.0117997629255104</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.988018666666667</v>
+        <v>198.2465873333333</v>
       </c>
       <c r="N4">
-        <v>8.964055999999999</v>
+        <v>594.7397619999999</v>
       </c>
       <c r="O4">
-        <v>0.01415565267361191</v>
+        <v>0.9851515664921635</v>
       </c>
       <c r="P4">
-        <v>0.01415565267361191</v>
+        <v>0.9851515664921635</v>
       </c>
       <c r="Q4">
-        <v>54.76457743573689</v>
+        <v>3.063438431866222</v>
       </c>
       <c r="R4">
-        <v>492.881196921632</v>
+        <v>27.570945886796</v>
       </c>
       <c r="S4">
-        <v>0.01413935636035164</v>
+        <v>0.01162455493030273</v>
       </c>
       <c r="T4">
-        <v>0.01413935636035164</v>
+        <v>0.01162455493030272</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -720,16 +720,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.01545266666666666</v>
+        <v>0.01545266666666667</v>
       </c>
       <c r="H5">
         <v>0.046358</v>
       </c>
       <c r="I5">
-        <v>0.0008421447467302082</v>
+        <v>0.0117997629255104</v>
       </c>
       <c r="J5">
-        <v>0.0008421447467302082</v>
+        <v>0.0117997629255104</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,33 +738,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.848467000000001</v>
+        <v>2.988018666666667</v>
       </c>
       <c r="N5">
-        <v>29.545401</v>
+        <v>8.964055999999999</v>
       </c>
       <c r="O5">
-        <v>0.0466568297496787</v>
+        <v>0.01484843350783645</v>
       </c>
       <c r="P5">
-        <v>0.0466568297496787</v>
+        <v>0.01484843350783645</v>
       </c>
       <c r="Q5">
-        <v>0.1521850777286667</v>
+        <v>0.04617285644977778</v>
       </c>
       <c r="R5">
-        <v>1.369665699558</v>
+        <v>0.415555708048</v>
       </c>
       <c r="S5">
-        <v>3.929180407277762E-05</v>
+        <v>0.000175207995207675</v>
       </c>
       <c r="T5">
-        <v>3.929180407277762E-05</v>
+        <v>0.0001752079952076749</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.01545266666666666</v>
+        <v>0.005671333333333334</v>
       </c>
       <c r="H6">
-        <v>0.046358</v>
+        <v>0.017014</v>
       </c>
       <c r="I6">
-        <v>0.0008421447467302082</v>
+        <v>0.004330669278541654</v>
       </c>
       <c r="J6">
-        <v>0.0008421447467302082</v>
+        <v>0.004330669278541653</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>594.7397619999999</v>
       </c>
       <c r="O6">
-        <v>0.9391875175767094</v>
+        <v>0.9851515664921635</v>
       </c>
       <c r="P6">
-        <v>0.9391875175767094</v>
+        <v>0.9851515664921635</v>
       </c>
       <c r="Q6">
-        <v>3.063438431866222</v>
+        <v>1.124322478963111</v>
       </c>
       <c r="R6">
-        <v>27.57094588679599</v>
+        <v>10.118902310668</v>
       </c>
       <c r="S6">
-        <v>0.0007909318341218109</v>
+        <v>0.004266365623714798</v>
       </c>
       <c r="T6">
-        <v>0.0007909318341218109</v>
+        <v>0.004266365623714797</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.01545266666666666</v>
+        <v>0.005671333333333334</v>
       </c>
       <c r="H7">
-        <v>0.046358</v>
+        <v>0.017014</v>
       </c>
       <c r="I7">
-        <v>0.0008421447467302082</v>
+        <v>0.004330669278541654</v>
       </c>
       <c r="J7">
-        <v>0.0008421447467302082</v>
+        <v>0.004330669278541653</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,208 +868,22 @@
         <v>8.964055999999999</v>
       </c>
       <c r="O7">
-        <v>0.01415565267361191</v>
+        <v>0.01484843350783645</v>
       </c>
       <c r="P7">
-        <v>0.01415565267361191</v>
+        <v>0.01484843350783645</v>
       </c>
       <c r="Q7">
-        <v>0.04617285644977777</v>
+        <v>0.01694604986488889</v>
       </c>
       <c r="R7">
-        <v>0.415555708048</v>
+        <v>0.152514448784</v>
       </c>
       <c r="S7">
-        <v>1.192110853561969E-05</v>
+        <v>6.430365482685582E-05</v>
       </c>
       <c r="T7">
-        <v>1.192110853561969E-05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.005671333333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.017014</v>
-      </c>
-      <c r="I8">
-        <v>0.0003090782760444317</v>
-      </c>
-      <c r="J8">
-        <v>0.0003090782760444316</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>9.848467000000001</v>
-      </c>
-      <c r="N8">
-        <v>29.545401</v>
-      </c>
-      <c r="O8">
-        <v>0.0466568297496787</v>
-      </c>
-      <c r="P8">
-        <v>0.0466568297496787</v>
-      </c>
-      <c r="Q8">
-        <v>0.05585393917933334</v>
-      </c>
-      <c r="R8">
-        <v>0.502685452614</v>
-      </c>
-      <c r="S8">
-        <v>1.442061250472925E-05</v>
-      </c>
-      <c r="T8">
-        <v>1.442061250472924E-05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.005671333333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.017014</v>
-      </c>
-      <c r="I9">
-        <v>0.0003090782760444317</v>
-      </c>
-      <c r="J9">
-        <v>0.0003090782760444316</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>198.2465873333333</v>
-      </c>
-      <c r="N9">
-        <v>594.7397619999999</v>
-      </c>
-      <c r="O9">
-        <v>0.9391875175767094</v>
-      </c>
-      <c r="P9">
-        <v>0.9391875175767094</v>
-      </c>
-      <c r="Q9">
-        <v>1.124322478963111</v>
-      </c>
-      <c r="R9">
-        <v>10.118902310668</v>
-      </c>
-      <c r="S9">
-        <v>0.0002902824588150587</v>
-      </c>
-      <c r="T9">
-        <v>0.0002902824588150586</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.005671333333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.017014</v>
-      </c>
-      <c r="I10">
-        <v>0.0003090782760444317</v>
-      </c>
-      <c r="J10">
-        <v>0.0003090782760444316</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>2.988018666666667</v>
-      </c>
-      <c r="N10">
-        <v>8.964055999999999</v>
-      </c>
-      <c r="O10">
-        <v>0.01415565267361191</v>
-      </c>
-      <c r="P10">
-        <v>0.01415565267361191</v>
-      </c>
-      <c r="Q10">
-        <v>0.01694604986488889</v>
-      </c>
-      <c r="R10">
-        <v>0.152514448784</v>
-      </c>
-      <c r="S10">
-        <v>4.375204724643718E-06</v>
-      </c>
-      <c r="T10">
-        <v>4.375204724643717E-06</v>
+        <v>6.43036548268558E-05</v>
       </c>
     </row>
   </sheetData>
